--- a/myapp/files/9_MethodComparePercent/Scenario 304.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 304.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>4522</v>
+        <v>11233</v>
       </c>
       <c r="F2" t="n">
-        <v>5.09469462251715</v>
+        <v>2.0792841620483</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.76923076923077</v>
+        <v>1.92307692307692</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6949</v>
+        <v>20755</v>
       </c>
       <c r="F3" t="n">
-        <v>7.829065221555</v>
+        <v>3.84185371524191</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>7.69230769230769</v>
+        <v>3.84615384615385</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>6924</v>
+        <v>18639</v>
       </c>
       <c r="F4" t="n">
-        <v>7.80089906375692</v>
+        <v>3.45017159231</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>5.76923076923077</v>
+        <v>3.07692307692308</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3794</v>
+        <v>4672</v>
       </c>
       <c r="F5" t="n">
-        <v>4.27449610743699</v>
+        <v>0.86481043399712</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.76923076923077</v>
+        <v>1.92307692307692</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>682</v>
       </c>
       <c r="F6" t="n">
-        <v>0.768372784731689</v>
+        <v>0.1262415916066</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.92307692307692</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>1675</v>
+        <v>9070</v>
       </c>
       <c r="F7" t="n">
-        <v>1.88713257247152</v>
+        <v>1.67890210538396</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.92307692307692</v>
+        <v>1.53846153846154</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5427</v>
+        <v>27098</v>
       </c>
       <c r="F8" t="n">
-        <v>6.11430953480774</v>
+        <v>5.01597455917251</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>1.92307692307692</v>
+        <v>4.61538461538462</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>5.63380281690141</v>
+        <v>4.22535211267606</v>
       </c>
     </row>
     <row r="9">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>642</v>
+        <v>24452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.723306932254757</v>
+        <v>4.52618680053458</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,16 +859,16 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.84615384615385</v>
+        <v>5.76923076923077</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>5.63380281690141</v>
+        <v>4.22535211267606</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>930</v>
+        <v>7027</v>
       </c>
       <c r="F10" t="n">
-        <v>1.04778107008867</v>
+        <v>1.30073264548325</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1.92307692307692</v>
+        <v>3.84615384615385</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>4754</v>
+        <v>8006</v>
       </c>
       <c r="F11" t="n">
-        <v>5.35607656688336</v>
+        <v>1.48195041407982</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.84615384615385</v>
+        <v>1.53846153846154</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2290</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.42389038823917</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>140</v>
+        <v>31728</v>
       </c>
       <c r="F13" t="n">
-        <v>0.157730483669262</v>
+        <v>5.87301058430236</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>1.92307692307692</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>5390</v>
+        <v>53000</v>
       </c>
       <c r="F14" t="n">
-        <v>6.07262362126658</v>
+        <v>9.81056357060089</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1049,10 +1049,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>3.84615384615385</v>
+        <v>6.92307692307692</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7022</v>
+        <v>34849</v>
       </c>
       <c r="F15" t="n">
-        <v>7.9113104023254</v>
+        <v>6.45072320512963</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>11.2676056338028</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J15" t="n">
-        <v>7.69230769230769</v>
+        <v>8.07692307692308</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>7175</v>
+        <v>19951</v>
       </c>
       <c r="F16" t="n">
-        <v>8.08368728804966</v>
+        <v>3.69302931692563</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>5.76923076923077</v>
+        <v>4.61538461538462</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3624</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.670820422261465</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>20789</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.84814728432494</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.46153846153846</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>9456</v>
+        <v>51919</v>
       </c>
       <c r="F19" t="n">
-        <v>10.6535675255467</v>
+        <v>9.61046509475524</v>
       </c>
       <c r="G19" t="n">
         <v>14</v>
@@ -1239,10 +1239,10 @@
         <v>19.7183098591549</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>3.84615384615385</v>
+        <v>6.15384615384615</v>
       </c>
       <c r="K19" t="n">
         <v>9</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3408</v>
+        <v>54545</v>
       </c>
       <c r="F20" t="n">
-        <v>3.8396106310346</v>
+        <v>10.0965507539326</v>
       </c>
       <c r="G20" t="n">
         <v>14</v>
@@ -1277,10 +1277,10 @@
         <v>19.7183098591549</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>7.69230769230769</v>
+        <v>9.61538461538462</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4147</v>
+        <v>41228</v>
       </c>
       <c r="F21" t="n">
-        <v>4.67220225554592</v>
+        <v>7.63150782808931</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>3.84615384615385</v>
+        <v>6.15384615384615</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3160</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.584931714775449</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1833</v>
+        <v>9796</v>
       </c>
       <c r="F23" t="n">
-        <v>2.06514268975541</v>
+        <v>1.81328831580389</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.84615384615385</v>
+        <v>2.69230769230769</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2433</v>
+        <v>13912</v>
       </c>
       <c r="F24" t="n">
-        <v>2.74113047690938</v>
+        <v>2.57518038479622</v>
       </c>
       <c r="G24" t="n">
         <v>8</v>
@@ -1429,10 +1429,10 @@
         <v>11.2676056338028</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>5.76923076923077</v>
+        <v>4.23076923076923</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>5648</v>
+        <v>35161</v>
       </c>
       <c r="F25" t="n">
-        <v>6.36329836974279</v>
+        <v>6.50847595671505</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1467,16 +1467,16 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J25" t="n">
-        <v>7.69230769230769</v>
+        <v>6.92307692307692</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>8.45070422535211</v>
+        <v>9.85915492957746</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>5808</v>
+        <v>32648</v>
       </c>
       <c r="F26" t="n">
-        <v>6.54356177965051</v>
+        <v>6.04330715949015</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,16 +1505,16 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J26" t="n">
-        <v>7.69230769230769</v>
+        <v>5.38461538461539</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>9.85915492957746</v>
+        <v>8.45070422535211</v>
       </c>
     </row>
   </sheetData>
